--- a/analysis/fluorimeter/offsets/expandedTiltData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedTiltData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502228F6-D42F-437B-B0F1-D2ABFFB01EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A01B2F-C286-40D5-A3E5-971E4E74A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="7296" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="7296" firstSheet="5" activeTab="9" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="610" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
   <si>
     <t>consumable</t>
   </si>
@@ -414,6 +414,66 @@
   </si>
   <si>
     <t>841b22</t>
+  </si>
+  <si>
+    <t>329715</t>
+  </si>
+  <si>
+    <t>8440ec</t>
+  </si>
+  <si>
+    <t>9a943c</t>
+  </si>
+  <si>
+    <t>360613</t>
+  </si>
+  <si>
+    <t>fbe88c</t>
+  </si>
+  <si>
+    <t>7e0aba</t>
+  </si>
+  <si>
+    <t>1159a5</t>
+  </si>
+  <si>
+    <t>48f021</t>
+  </si>
+  <si>
+    <t>342238</t>
+  </si>
+  <si>
+    <t>f92ca4</t>
+  </si>
+  <si>
+    <t>6d21bc</t>
+  </si>
+  <si>
+    <t>9099e8</t>
+  </si>
+  <si>
+    <t>3e2186</t>
+  </si>
+  <si>
+    <t>b32427</t>
+  </si>
+  <si>
+    <t>f9eb9b</t>
+  </si>
+  <si>
+    <t>f9676c</t>
+  </si>
+  <si>
+    <t>433f7f</t>
+  </si>
+  <si>
+    <t>fe3b7d</t>
+  </si>
+  <si>
+    <t>8ee14b</t>
+  </si>
+  <si>
+    <t>c31c75</t>
   </si>
 </sst>
 </file>
@@ -449,10 +509,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DB2FF-A4F1-4F1A-B962-04D89914D2BE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +960,22 @@
         <v>113</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -909,10 +986,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B230532F-C9A4-4E59-AF38-B2E4C12A29DD}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,6 +1099,22 @@
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1031,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C12AFB-624F-446B-A8A3-60B75F467B7B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B2:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,6 +1237,22 @@
       </c>
       <c r="B13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02CC60-4200-45FC-A59F-15027BC67155}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,6 +1375,22 @@
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1275,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748725C4-888B-4A18-BA95-EAE874987065}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,6 +1512,22 @@
         <v>116</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -1397,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0C77D1-5959-4A43-A6B6-4F541C0E87BB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,6 +1650,22 @@
         <v>117</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -1519,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC3D6A-3F84-4B22-8D75-A337F74F582B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,6 +1788,22 @@
         <v>118</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -1641,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59BCC1-7DA4-47C3-9612-B44885EB1D57}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,6 +1926,22 @@
         <v>119</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -1763,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B8657-16E6-4231-A918-83FE57F17A2D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,6 +2065,22 @@
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0B9AEC-A17E-47C0-84FB-172FF18E9C09}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,6 +2205,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/fluorimeter/offsets/expandedTiltData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedTiltData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\work\analysis\fluorimeter\offsets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A01B2F-C286-40D5-A3E5-971E4E74A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356AD504-94CC-43BC-960D-91A798E2F768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="7296" firstSheet="5" activeTab="9" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="9" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="610" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>ee0a01</t>
   </si>
   <si>
-    <t>45798</t>
-  </si>
-  <si>
     <t>827ec2</t>
   </si>
   <si>
@@ -266,15 +263,9 @@
     <t>6d94ba</t>
   </si>
   <si>
-    <t>29B488</t>
-  </si>
-  <si>
     <t>E35577</t>
   </si>
   <si>
-    <t>422D6D</t>
-  </si>
-  <si>
     <t>0fb7aa</t>
   </si>
   <si>
@@ -474,6 +465,15 @@
   </si>
   <si>
     <t>c31c75</t>
+  </si>
+  <si>
+    <t>29b488</t>
+  </si>
+  <si>
+    <t>422d6d</t>
+  </si>
+  <si>
+    <t>045798</t>
   </si>
 </sst>
 </file>
@@ -850,13 +850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DB2FF-A4F1-4F1A-B962-04D89914D2BE}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,116 +867,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -988,13 +1030,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B230532F-C9A4-4E59-AF38-B2E4C12A29DD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,116 +1047,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1126,13 +1210,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C12AFB-624F-446B-A8A3-60B75F467B7B}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,116 +1227,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1264,13 +1390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02CC60-4200-45FC-A59F-15027BC67155}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,115 +1407,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -1402,13 +1570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748725C4-888B-4A18-BA95-EAE874987065}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1419,116 +1587,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1540,13 +1750,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0C77D1-5959-4A43-A6B6-4F541C0E87BB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1557,116 +1767,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1678,13 +1930,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC3D6A-3F84-4B22-8D75-A337F74F582B}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,116 +1947,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1816,13 +2110,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59BCC1-7DA4-47C3-9612-B44885EB1D57}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,116 +2127,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1954,13 +2290,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B8657-16E6-4231-A918-83FE57F17A2D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1971,116 +2307,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2092,13 +2470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0B9AEC-A17E-47C0-84FB-172FF18E9C09}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2109,116 +2487,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/fluorimeter/offsets/expandedTiltData.xlsx
+++ b/analysis/fluorimeter/offsets/expandedTiltData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\fluorimeter\offsets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356AD504-94CC-43BC-960D-91A798E2F768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDB2FB-3A24-45DA-8BC1-3639462D4767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="9" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{75634C20-401B-4D4B-B857-0DDCACABD9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="610" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
   <si>
     <t>consumable</t>
   </si>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>045798</t>
+  </si>
+  <si>
+    <t>offset type</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>general noise</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>gradual drift</t>
+  </si>
+  <si>
+    <t>fuzzy</t>
   </si>
 </sst>
 </file>
@@ -848,7 +866,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DB2FF-A4F1-4F1A-B962-04D89914D2BE}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B230532F-C9A4-4E59-AF38-B2E4C12A29DD}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C12AFB-624F-446B-A8A3-60B75F467B7B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02CC60-4200-45FC-A59F-15027BC67155}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748725C4-888B-4A18-BA95-EAE874987065}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -856,7 +1774,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,43 +1784,55 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -910,10 +1840,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -921,10 +1854,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -932,54 +1868,69 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -987,38 +1938,50 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>110</v>
+      <c r="D12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1026,369 +1989,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B230532F-C9A4-4E59-AF38-B2E4C12A29DD}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C12AFB-624F-446B-A8A3-60B75F467B7B}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02CC60-4200-45FC-A59F-15027BC67155}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0C77D1-5959-4A43-A6B6-4F541C0E87BB}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1396,7 +1999,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,21 +2009,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1428,65 +2037,83 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1494,21 +2121,27 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1516,49 +2149,64 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1566,9 +2214,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748725C4-888B-4A18-BA95-EAE874987065}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC3D6A-3F84-4B22-8D75-A337F74F582B}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1576,7 +2224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,32 +2234,41 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1619,10 +2276,13 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1630,10 +2290,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1641,10 +2304,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1652,32 +2318,41 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1685,10 +2360,13 @@
       <c r="C10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1696,409 +2374,64 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0C77D1-5959-4A43-A6B6-4F541C0E87BB}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CC3D6A-3F84-4B22-8D75-A337F74F582B}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
+      <c r="D15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2108,15 +2441,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59BCC1-7DA4-47C3-9612-B44885EB1D57}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2459,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2137,8 +2473,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2148,8 +2487,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2159,8 +2501,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2170,8 +2515,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2181,8 +2529,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2192,8 +2543,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2203,8 +2557,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2214,8 +2571,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -2225,8 +2585,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2236,8 +2599,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -2247,8 +2613,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -2258,8 +2627,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2269,8 +2641,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2278,6 +2653,9 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
@@ -2288,15 +2666,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B8657-16E6-4231-A918-83FE57F17A2D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2306,8 +2684,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2317,8 +2704,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2328,8 +2724,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2339,8 +2744,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>134</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2350,8 +2764,17 @@
       <c r="C5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2361,8 +2784,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2372,8 +2798,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -2383,8 +2812,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2394,8 +2826,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2405,8 +2840,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2416,8 +2854,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2427,8 +2868,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2438,8 +2882,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2449,8 +2896,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -2459,6 +2909,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2468,15 +2921,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0B9AEC-A17E-47C0-84FB-172FF18E9C09}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2486,8 +2939,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2497,8 +2953,11 @@
       <c r="C2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2508,8 +2967,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2519,8 +2981,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2530,8 +2995,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2541,8 +3009,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2552,8 +3023,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2563,8 +3037,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -2574,8 +3051,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2585,8 +3065,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -2596,8 +3079,11 @@
       <c r="C11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2607,8 +3093,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2618,8 +3107,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -2629,8 +3121,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -2639,6 +3134,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
